--- a/results/mp/tinybert/home-spam/confidence/84/stop-words-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/84/stop-words-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="157">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,10 +43,13 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>useless</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>useless</t>
+    <t>defective</t>
   </si>
   <si>
     <t>disappointed</t>
@@ -55,12 +58,12 @@
     <t>returned</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
@@ -70,151 +73,166 @@
     <t>broke</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>excellent</t>
   </si>
   <si>
     <t>beautifully</t>
   </si>
   <si>
-    <t>excellent</t>
+    <t>awesome</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>pleased</t>
+    <t>cakes</t>
   </si>
   <si>
     <t>apples</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>wedding</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>mas</t>
+  </si>
+  <si>
+    <t>wife</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>wedding</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>mas</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>kids</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>rice</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>comfortable</t>
   </si>
   <si>
     <t>handy</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>comfortable</t>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>decor</t>
   </si>
   <si>
     <t>cooks</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ever</t>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>home</t>
   </si>
   <si>
     <t>thanks</t>
@@ -223,256 +241,244 @@
     <t>popcorn</t>
   </si>
   <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>gift</t>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>dough</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>baking</t>
   </si>
   <si>
     <t>pop</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>cookies</t>
-  </si>
-  <si>
-    <t>friend</t>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>cook</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
     <t>old</t>
   </si>
   <si>
-    <t>dough</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>home</t>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>durable</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>book</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>keeps</t>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>peel</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>easier</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>brand</t>
   </si>
   <si>
     <t>gr</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>easier</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>amazon</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>brand</t>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
-    <t>peel</t>
-  </si>
-  <si>
-    <t>bowl</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>anyone</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>quality</t>
+    <t>make</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>little</t>
   </si>
   <si>
     <t>cup</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>wish</t>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>purchased</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>job</t>
   </si>
   <si>
     <t>hot</t>
   </si>
   <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>purchased</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>purchase</t>
-  </si>
-  <si>
-    <t>really</t>
+    <t>got</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>used</t>
+  </si>
+  <si>
+    <t>handle</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>fit</t>
+    <t>use</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>made</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>work</t>
   </si>
   <si>
     <t>product</t>
@@ -844,10 +850,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -905,13 +911,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -923,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>0.9354838709677419</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -947,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -955,13 +961,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7777777777777778</v>
+        <v>0.725</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -973,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.9310344827586207</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L4">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="M4">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -997,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1005,13 +1011,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.65</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1023,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.8947368421052632</v>
+        <v>0.8984375</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1047,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1055,13 +1061,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3643410852713178</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1073,19 +1079,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.890625</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1097,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1105,13 +1111,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3535353535353535</v>
+        <v>0.3875968992248062</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1123,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K7">
-        <v>0.8560371517027864</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>553</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>553</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1147,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1155,13 +1161,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3396226415094339</v>
+        <v>0.3838383838383838</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1173,19 +1179,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.855072463768116</v>
+        <v>0.8560371517027864</v>
       </c>
       <c r="L8">
-        <v>59</v>
+        <v>553</v>
       </c>
       <c r="M8">
-        <v>59</v>
+        <v>553</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1197,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1205,13 +1211,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1223,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K9">
         <v>0.85</v>
@@ -1255,13 +1261,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2692307692307692</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1273,19 +1279,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.8076923076923077</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M10">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1297,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1305,13 +1311,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.25</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1323,19 +1329,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.8043478260869565</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="L11">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="M11">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1347,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1355,13 +1361,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1621621621621622</v>
+        <v>0.2205882352941176</v>
       </c>
       <c r="C12">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1373,19 +1379,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.7727272727272727</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L12">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M12">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1397,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1405,63 +1411,87 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.07731958762886598</v>
+        <v>0.1675675675675676</v>
       </c>
       <c r="C13">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>31</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>154</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13">
+        <v>0.7402597402597403</v>
+      </c>
+      <c r="L13">
+        <v>171</v>
+      </c>
+      <c r="M13">
+        <v>171</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="C14">
         <v>15</v>
       </c>
-      <c r="D13">
-        <v>16</v>
-      </c>
-      <c r="E13">
-        <v>0.06</v>
-      </c>
-      <c r="F13">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>179</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13">
-        <v>0.7532467532467533</v>
-      </c>
-      <c r="L13">
-        <v>174</v>
-      </c>
-      <c r="M13">
-        <v>174</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
+      <c r="D14">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>75</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14">
+        <v>0.7402597402597403</v>
+      </c>
+      <c r="L14">
         <v>57</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="J14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14">
-        <v>0.7288135593220338</v>
-      </c>
-      <c r="L14">
-        <v>215</v>
-      </c>
       <c r="M14">
-        <v>215</v>
+        <v>57</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1473,21 +1503,45 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.09743589743589744</v>
+      </c>
+      <c r="C15">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>176</v>
+      </c>
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K15">
-        <v>0.7111111111111111</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L15">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M15">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1499,21 +1553,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K16">
-        <v>0.7012987012987013</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L16">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M16">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1525,21 +1579,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K17">
-        <v>0.6923076923076923</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1551,21 +1605,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K18">
-        <v>0.6857142857142857</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L18">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1577,21 +1631,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K19">
-        <v>0.6575342465753424</v>
+        <v>0.6915254237288135</v>
       </c>
       <c r="L19">
-        <v>48</v>
+        <v>204</v>
       </c>
       <c r="M19">
-        <v>48</v>
+        <v>204</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1603,21 +1657,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>25</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K20">
-        <v>0.6521739130434783</v>
+        <v>0.671875</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1629,21 +1683,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>0.6476725521669342</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L21">
-        <v>807</v>
+        <v>17</v>
       </c>
       <c r="M21">
-        <v>807</v>
+        <v>17</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1655,21 +1709,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>439</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>0.6410256410256411</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>812</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>812</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1681,15 +1735,15 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>0.640625</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L23">
         <v>41</v>
@@ -1707,21 +1761,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>0.6338028169014085</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L24">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="M24">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1733,21 +1787,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K25">
-        <v>0.6323529411764706</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="L25">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1759,21 +1813,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>0.6296296296296297</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="L26">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1785,21 +1839,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>0.6285714285714286</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="L27">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="M27">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1811,21 +1865,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>26</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>0.6060606060606061</v>
+        <v>0.6</v>
       </c>
       <c r="L28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1837,21 +1891,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>0.6041666666666666</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1863,21 +1917,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>0.5964912280701754</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L30">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1889,47 +1943,47 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>0.5918367346938775</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L31">
+        <v>39</v>
+      </c>
+      <c r="M31">
+        <v>39</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>29</v>
-      </c>
-      <c r="M31">
-        <v>29</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>20</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>0.5783132530120482</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L32">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M32">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1941,21 +1995,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.5714285714285714</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L33">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="M33">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1967,21 +2021,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>75</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.5694444444444444</v>
+        <v>0.5480769230769231</v>
       </c>
       <c r="L34">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="M34">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1993,21 +2047,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.5641025641025641</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2019,21 +2073,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.5538461538461539</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L36">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M36">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2045,21 +2099,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.5538461538461539</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L37">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M37">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2071,21 +2125,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>0.5526315789473685</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L38">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M38">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2097,21 +2151,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>0.5480769230769231</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L39">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="M39">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2123,21 +2177,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K40">
-        <v>0.5294117647058824</v>
+        <v>0.5209580838323353</v>
       </c>
       <c r="L40">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="M40">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2149,21 +2203,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K41">
-        <v>0.525</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="L41">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="M41">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2175,21 +2229,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K42">
-        <v>0.5213675213675214</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L42">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="M42">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2201,21 +2255,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>56</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K43">
-        <v>0.5209580838323353</v>
+        <v>0.49</v>
       </c>
       <c r="L43">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="M43">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2227,21 +2281,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>80</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K44">
-        <v>0.5079365079365079</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L44">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M44">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2253,21 +2307,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K45">
-        <v>0.4918032786885246</v>
+        <v>0.4786324786324787</v>
       </c>
       <c r="L45">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="M45">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2279,21 +2333,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K46">
-        <v>0.4897959183673469</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L46">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M46">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2305,21 +2359,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K47">
-        <v>0.47</v>
+        <v>0.475</v>
       </c>
       <c r="L47">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="M47">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2331,21 +2385,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K48">
-        <v>0.4615384615384616</v>
+        <v>0.4586466165413534</v>
       </c>
       <c r="L48">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="M48">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2357,21 +2411,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K49">
-        <v>0.4511278195488722</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="L49">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="M49">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2383,47 +2437,47 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>73</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K50">
-        <v>0.4354838709677419</v>
+        <v>0.4489795918367347</v>
       </c>
       <c r="L50">
+        <v>22</v>
+      </c>
+      <c r="M50">
+        <v>22</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
         <v>27</v>
-      </c>
-      <c r="M50">
-        <v>27</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>35</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K51">
-        <v>0.4210526315789473</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="L51">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="M51">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2435,21 +2489,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>44</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K52">
-        <v>0.4197530864197531</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L52">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M52">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2461,21 +2515,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K53">
-        <v>0.4166666666666667</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="L53">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M53">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2487,21 +2541,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K54">
-        <v>0.4156626506024096</v>
+        <v>0.4354838709677419</v>
       </c>
       <c r="L54">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="M54">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2513,21 +2567,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>97</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K55">
-        <v>0.4126984126984127</v>
+        <v>0.4342105263157895</v>
       </c>
       <c r="L55">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M55">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2539,21 +2593,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K56">
-        <v>0.3970588235294117</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L56">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="M56">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2565,21 +2619,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>246</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K57">
-        <v>0.3970588235294117</v>
+        <v>0.4264705882352941</v>
       </c>
       <c r="L57">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M57">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2591,21 +2645,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K58">
-        <v>0.3696498054474708</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="L58">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="M58">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2617,21 +2671,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>162</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K59">
-        <v>0.3695652173913043</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="L59">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M59">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2643,21 +2697,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K60">
-        <v>0.3658536585365854</v>
+        <v>0.3848039215686275</v>
       </c>
       <c r="L60">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="M60">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2669,21 +2723,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>26</v>
+        <v>251</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K61">
-        <v>0.3611111111111111</v>
+        <v>0.3813229571984436</v>
       </c>
       <c r="L61">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="M61">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2695,21 +2749,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>69</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K62">
-        <v>0.3603603603603603</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="L62">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M62">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2721,21 +2775,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>71</v>
+        <v>38</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K63">
-        <v>0.3571428571428572</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="L63">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M63">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2747,21 +2801,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K64">
-        <v>0.3533834586466165</v>
+        <v>0.3603603603603603</v>
       </c>
       <c r="L64">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="M64">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2773,21 +2827,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K65">
-        <v>0.3404255319148936</v>
+        <v>0.3309352517985611</v>
       </c>
       <c r="L65">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="M65">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2799,21 +2853,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>31</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K66">
-        <v>0.3333333333333333</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="L66">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M66">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2825,21 +2879,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K67">
-        <v>0.3328767123287671</v>
+        <v>0.3232876712328767</v>
       </c>
       <c r="L67">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="M67">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2851,21 +2905,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>487</v>
+        <v>494</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K68">
-        <v>0.3272727272727273</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="L68">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="M68">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2877,21 +2931,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>37</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K69">
-        <v>0.3063063063063063</v>
+        <v>0.2932330827067669</v>
       </c>
       <c r="L69">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M69">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2903,21 +2957,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K70">
-        <v>0.3055555555555556</v>
+        <v>0.291866028708134</v>
       </c>
       <c r="L70">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="M70">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2929,21 +2983,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>50</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K71">
-        <v>0.2976190476190476</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L71">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M71">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2955,21 +3009,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K72">
-        <v>0.2966507177033493</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L72">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="M72">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2981,21 +3035,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>147</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K73">
-        <v>0.2949640287769784</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L73">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="M73">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3007,21 +3061,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>98</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K74">
-        <v>0.2916666666666667</v>
+        <v>0.2673267326732673</v>
       </c>
       <c r="L74">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M74">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3033,21 +3087,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>51</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K75">
-        <v>0.2772277227722773</v>
+        <v>0.265625</v>
       </c>
       <c r="L75">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M75">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -3059,21 +3113,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>73</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K76">
-        <v>0.271523178807947</v>
+        <v>0.2615715823466093</v>
       </c>
       <c r="L76">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="M76">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -3085,21 +3139,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>110</v>
+        <v>686</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K77">
-        <v>0.2666666666666667</v>
+        <v>0.2588235294117647</v>
       </c>
       <c r="L77">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M77">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3111,21 +3165,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K78">
-        <v>0.2661637931034483</v>
+        <v>0.2582781456953642</v>
       </c>
       <c r="L78">
-        <v>247</v>
+        <v>39</v>
       </c>
       <c r="M78">
-        <v>248</v>
+        <v>39</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3134,50 +3188,50 @@
         <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>681</v>
+        <v>112</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K79">
-        <v>0.2589285714285715</v>
+        <v>0.25</v>
       </c>
       <c r="L79">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M79">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="N79">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>83</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K80">
-        <v>0.2416107382550336</v>
+        <v>0.2461538461538462</v>
       </c>
       <c r="L80">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="M80">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3189,21 +3243,21 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>113</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K81">
-        <v>0.2307692307692308</v>
+        <v>0.2342342342342342</v>
       </c>
       <c r="L81">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M81">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3215,47 +3269,47 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K82">
-        <v>0.2236842105263158</v>
+        <v>0.2321428571428572</v>
       </c>
       <c r="L82">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M82">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N82">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q82">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K83">
-        <v>0.2145695364238411</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="L83">
-        <v>162</v>
+        <v>34</v>
       </c>
       <c r="M83">
-        <v>162</v>
+        <v>34</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3267,21 +3321,21 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>593</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K84">
-        <v>0.2117647058823529</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="L84">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M84">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3293,21 +3347,21 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K85">
-        <v>0.21</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="L85">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M85">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3319,21 +3373,21 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K86">
-        <v>0.2077922077922078</v>
+        <v>0.2145695364238411</v>
       </c>
       <c r="L86">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="M86">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3345,21 +3399,21 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>61</v>
+        <v>593</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K87">
-        <v>0.2033248081841432</v>
+        <v>0.2136752136752137</v>
       </c>
       <c r="L87">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="M87">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3371,21 +3425,21 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>623</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K88">
-        <v>0.2</v>
+        <v>0.2122762148337596</v>
       </c>
       <c r="L88">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="M88">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3397,21 +3451,21 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>68</v>
+        <v>616</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K89">
-        <v>0.1974921630094044</v>
+        <v>0.2006269592476489</v>
       </c>
       <c r="L89">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M89">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3423,21 +3477,21 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K90">
-        <v>0.1965811965811966</v>
+        <v>0.2</v>
       </c>
       <c r="L90">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M90">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3449,21 +3503,21 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K91">
-        <v>0.1956521739130435</v>
+        <v>0.1973684210526316</v>
       </c>
       <c r="L91">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M91">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3475,21 +3529,21 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K92">
-        <v>0.1951219512195122</v>
+        <v>0.19</v>
       </c>
       <c r="L92">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M92">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3501,47 +3555,47 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>132</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K93">
-        <v>0.1938775510204082</v>
+        <v>0.1890243902439024</v>
       </c>
       <c r="L93">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M93">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N93">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <v>79</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K94">
-        <v>0.1845018450184502</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L94">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="M94">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3553,21 +3607,21 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>221</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K95">
-        <v>0.1807228915662651</v>
+        <v>0.1809523809523809</v>
       </c>
       <c r="L95">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M95">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -3579,38 +3633,38 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K96">
-        <v>0.1744186046511628</v>
+        <v>0.1788617886178862</v>
       </c>
       <c r="L96">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="M96">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O96">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q96">
-        <v>71</v>
+        <v>303</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K97">
         <v>0.1743119266055046</v>
@@ -3636,16 +3690,16 @@
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K98">
-        <v>0.1720430107526882</v>
+        <v>0.1721311475409836</v>
       </c>
       <c r="L98">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M98">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3657,21 +3711,21 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>77</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K99">
-        <v>0.1666666666666667</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="L99">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="M99">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -3683,21 +3737,21 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>380</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K100">
-        <v>0.162291169451074</v>
+        <v>0.1599045346062052</v>
       </c>
       <c r="L100">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M100">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3709,73 +3763,73 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K101">
-        <v>0.1612903225806452</v>
+        <v>0.1595092024539877</v>
       </c>
       <c r="L101">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M101">
         <v>26</v>
       </c>
       <c r="N101">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O101">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K102">
-        <v>0.1544715447154472</v>
+        <v>0.1576354679802956</v>
       </c>
       <c r="L102">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M102">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="N102">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O102">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q102">
-        <v>312</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K103">
-        <v>0.1527093596059113</v>
+        <v>0.1557017543859649</v>
       </c>
       <c r="L103">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="M103">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -3787,21 +3841,21 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>172</v>
+        <v>385</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K104">
-        <v>0.1518518518518518</v>
+        <v>0.1549815498154982</v>
       </c>
       <c r="L104">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M104">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -3818,42 +3872,42 @@
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K105">
-        <v>0.1412429378531073</v>
+        <v>0.1524163568773234</v>
       </c>
       <c r="L105">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="M105">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="N105">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O105">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q105">
-        <v>152</v>
+        <v>228</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K106">
-        <v>0.139344262295082</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="L106">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M106">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -3865,21 +3919,21 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K107">
-        <v>0.1384615384615385</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="L107">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M107">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -3891,21 +3945,21 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>112</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K108">
-        <v>0.134453781512605</v>
+        <v>0.1340909090909091</v>
       </c>
       <c r="L108">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="M108">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -3917,21 +3971,21 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>206</v>
+        <v>381</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K109">
-        <v>0.1340909090909091</v>
+        <v>0.1327433628318584</v>
       </c>
       <c r="L109">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="M109">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -3943,21 +3997,21 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>381</v>
+        <v>98</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K110">
-        <v>0.1313868613138686</v>
+        <v>0.1297709923664122</v>
       </c>
       <c r="L110">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="M110">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -3969,21 +4023,21 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>357</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K111">
-        <v>0.130718954248366</v>
+        <v>0.1289537712895377</v>
       </c>
       <c r="L111">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="M111">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -3995,21 +4049,21 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>133</v>
+        <v>358</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K112">
-        <v>0.1288343558282209</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="L112">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M112">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -4021,21 +4075,21 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>142</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K113">
-        <v>0.127147766323024</v>
+        <v>0.1241830065359477</v>
       </c>
       <c r="L113">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="M113">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -4047,47 +4101,47 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>254</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K114">
-        <v>0.1188811188811189</v>
+        <v>0.1237113402061856</v>
       </c>
       <c r="L114">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M114">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="N114">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O114">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q114">
-        <v>126</v>
+        <v>255</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K115">
-        <v>0.1162790697674419</v>
+        <v>0.1217948717948718</v>
       </c>
       <c r="L115">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M115">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -4099,21 +4153,21 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>114</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K116">
-        <v>0.1151515151515152</v>
+        <v>0.1125</v>
       </c>
       <c r="L116">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M116">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -4125,47 +4179,47 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117" spans="10:17">
       <c r="J117" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K117">
-        <v>0.1045751633986928</v>
+        <v>0.1118881118881119</v>
       </c>
       <c r="L117">
         <v>16</v>
       </c>
       <c r="M117">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N117">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O117">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q117">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="10:17">
       <c r="J118" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K118">
-        <v>0.09615384615384616</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L118">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M118">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -4177,73 +4231,73 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>188</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="10:17">
       <c r="J119" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K119">
-        <v>0.09433962264150944</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="L119">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M119">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N119">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O119">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q119">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="120" spans="10:17">
       <c r="J120" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K120">
-        <v>0.09289617486338798</v>
+        <v>0.0966183574879227</v>
       </c>
       <c r="L120">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M120">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="N120">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O120">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q120">
-        <v>332</v>
+        <v>187</v>
       </c>
     </row>
     <row r="121" spans="10:17">
       <c r="J121" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K121">
-        <v>0.09137055837563451</v>
+        <v>0.09328358208955224</v>
       </c>
       <c r="L121">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="M121">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -4255,21 +4309,21 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>358</v>
+        <v>972</v>
       </c>
     </row>
     <row r="122" spans="10:17">
       <c r="J122" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K122">
-        <v>0.08648648648648649</v>
+        <v>0.09289617486338798</v>
       </c>
       <c r="L122">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M122">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -4281,47 +4335,47 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>169</v>
+        <v>332</v>
       </c>
     </row>
     <row r="123" spans="10:17">
       <c r="J123" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K123">
-        <v>0.08496732026143791</v>
+        <v>0.09195402298850575</v>
       </c>
       <c r="L123">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="M123">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="N123">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="O123">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P123" t="b">
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>980</v>
+        <v>632</v>
       </c>
     </row>
     <row r="124" spans="10:17">
       <c r="J124" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K124">
-        <v>0.0846774193548387</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="L124">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M124">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -4333,47 +4387,47 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="125" spans="10:17">
       <c r="J125" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K125">
-        <v>0.07902298850574713</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="L125">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="M125">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="N125">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O125">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q125">
-        <v>641</v>
+        <v>217</v>
       </c>
     </row>
     <row r="126" spans="10:17">
       <c r="J126" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K126">
-        <v>0.07720588235294118</v>
+        <v>0.08648648648648649</v>
       </c>
       <c r="L126">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M126">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N126">
         <v>1</v>
@@ -4385,125 +4439,125 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>251</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127" spans="10:17">
       <c r="J127" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K127">
-        <v>0.07614213197969544</v>
+        <v>0.08629441624365482</v>
       </c>
       <c r="L127">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M127">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N127">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O127">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q127">
-        <v>182</v>
+        <v>360</v>
       </c>
     </row>
     <row r="128" spans="10:17">
       <c r="J128" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K128">
-        <v>0.07537688442211055</v>
+        <v>0.07115384615384615</v>
       </c>
       <c r="L128">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M128">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="N128">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O128">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P128" t="b">
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>184</v>
+        <v>483</v>
       </c>
     </row>
     <row r="129" spans="10:17">
       <c r="J129" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K129">
-        <v>0.06295399515738499</v>
+        <v>0.06694560669456066</v>
       </c>
       <c r="L129">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M129">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N129">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O129">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q129">
-        <v>387</v>
+        <v>223</v>
       </c>
     </row>
     <row r="130" spans="10:17">
       <c r="J130" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K130">
-        <v>0.05782312925170068</v>
+        <v>0.06617647058823529</v>
       </c>
       <c r="L130">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M130">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N130">
-        <v>0.77</v>
+        <v>1</v>
       </c>
       <c r="O130">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="P130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q130">
-        <v>277</v>
+        <v>254</v>
       </c>
     </row>
     <row r="131" spans="10:17">
       <c r="J131" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K131">
-        <v>0.05758157389635317</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="L131">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="M131">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="N131">
         <v>0.97</v>
@@ -4515,125 +4569,125 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>491</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="132" spans="10:17">
       <c r="J132" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K132">
-        <v>0.05632582322357019</v>
+        <v>0.05914972273567468</v>
       </c>
       <c r="L132">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="M132">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="N132">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O132">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P132" t="b">
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>1089</v>
+        <v>509</v>
       </c>
     </row>
     <row r="133" spans="10:17">
       <c r="J133" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K133">
-        <v>0.05535055350553506</v>
+        <v>0.05782312925170068</v>
       </c>
       <c r="L133">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M133">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N133">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="O133">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="P133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q133">
-        <v>512</v>
+        <v>277</v>
       </c>
     </row>
     <row r="134" spans="10:17">
       <c r="J134" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K134">
-        <v>0.05509641873278237</v>
+        <v>0.0467032967032967</v>
       </c>
       <c r="L134">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M134">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N134">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O134">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P134" t="b">
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="135" spans="10:17">
       <c r="J135" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K135">
-        <v>0.0410958904109589</v>
+        <v>0.04600484261501211</v>
       </c>
       <c r="L135">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M135">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N135">
-        <v>0.71</v>
+        <v>0.95</v>
       </c>
       <c r="O135">
-        <v>0.29</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P135" t="b">
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>350</v>
+        <v>394</v>
       </c>
     </row>
     <row r="136" spans="10:17">
       <c r="J136" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K136">
-        <v>0.03674540682414698</v>
+        <v>0.03805774278215223</v>
       </c>
       <c r="L136">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M136">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N136">
         <v>0.85</v>
@@ -4645,7 +4699,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
   </sheetData>
